--- a/_Lang_Korean/Lang/KR/Game/Word.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Word.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">100</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.18</t>
+    <t xml:space="preserve">EA 23.23 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">wrecked</t>

--- a/_Lang_Korean/Lang/KR/Game/Word.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Word.xlsx
@@ -2038,7 +2038,7 @@
     <t xml:space="preserve">327</t>
   </si>
   <si>
-    <t xml:space="preserve">소리꾼</t>
+    <t xml:space="preserve">노래꾼</t>
   </si>
   <si>
     <t xml:space="preserve">poet</t>
@@ -4297,7 +4297,7 @@
     <t xml:space="preserve">954</t>
   </si>
   <si>
-    <t xml:space="preserve">방어자,방위자,수비자,소리꾼</t>
+    <t xml:space="preserve">방어자,방위자,수비자,노래꾼</t>
   </si>
   <si>
     <t xml:space="preserve">defenders,singers</t>
@@ -5863,14 +5863,14 @@
   <dimension ref="A1:E486"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A345" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C360" activeCellId="0" sqref="C360"/>
+      <selection pane="bottomLeft" activeCell="C170" activeCellId="0" sqref="C170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.65625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.6484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="14.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="14.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
